--- a/1279_BQ.xlsx
+++ b/1279_BQ.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -484,8 +484,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>34800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>155625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -494,8 +494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2209800" y="1381125"/>
-          <a:ext cx="4530600" cy="466725"/>
+          <a:off x="2205958" y="1392331"/>
+          <a:ext cx="4520355" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -584,6 +584,343 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>329466</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>36898</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30643</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Group 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="1337949">
+          <a:off x="5804340" y="1564502"/>
+          <a:ext cx="924071" cy="963452"/>
+          <a:chOff x="2230464" y="6775236"/>
+          <a:chExt cx="924071" cy="963452"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Trapezoid 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="14400000">
+            <a:off x="2659476" y="7033770"/>
+            <a:ext cx="684000" cy="180000"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 58351"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Trapezoid 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="7200000">
+            <a:off x="2043471" y="7030092"/>
+            <a:ext cx="684000" cy="180000"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 58351"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Trapezoid 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2347952" y="7558688"/>
+            <a:ext cx="684000" cy="180000"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 58351"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Trapezoid 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="18000000">
+            <a:off x="2848535" y="7422936"/>
+            <a:ext cx="432000" cy="180000"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 58351"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Trapezoid 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="3600000">
+            <a:off x="2104464" y="7419255"/>
+            <a:ext cx="432000" cy="180000"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 58351"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Trapezoid 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2472978" y="6775236"/>
+            <a:ext cx="432000" cy="180000"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 58351"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560293</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>108057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>535335</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>90254</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Right Triangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3601890" y="8368393"/>
+          <a:ext cx="1800000" cy="750600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2451,7 +2788,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -3195,10 +3532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M7:N8"/>
+  <dimension ref="J7:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3218,6 +3555,36 @@
       </c>
       <c r="N8">
         <v>125.85</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>292.64</v>
+      </c>
+      <c r="K45">
+        <f>J45-270</f>
+        <v>22.639999999999986</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <f>RADIANS(K45)</f>
+        <v>0.39514254265151599</v>
+      </c>
+    </row>
+    <row r="47" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <f>TAN(K46)</f>
+        <v>0.41707916096451081</v>
+      </c>
+    </row>
+    <row r="48" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>50</v>
+      </c>
+      <c r="K48">
+        <f>K47*J48</f>
+        <v>20.85395804822554</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3653,7 @@
         <v>1500</v>
       </c>
       <c r="F2" s="3">
-        <f>ROUNDUP(D2*E2,-1)</f>
+        <f t="shared" ref="F2:F26" si="0">ROUNDUP(D2*E2,-1)</f>
         <v>1500</v>
       </c>
     </row>
@@ -3307,7 +3674,7 @@
         <v>500</v>
       </c>
       <c r="F3" s="3">
-        <f>ROUNDUP(D3*E3,-1)</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -3328,7 +3695,7 @@
         <v>304</v>
       </c>
       <c r="F4" s="3">
-        <f>ROUNDUP(D4*E4,-1)</f>
+        <f t="shared" si="0"/>
         <v>1220</v>
       </c>
       <c r="G4" t="s">
@@ -3352,7 +3719,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="3">
-        <f>ROUNDUP(D5*E5,-1)</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3376,7 +3743,7 @@
         <v>250</v>
       </c>
       <c r="F6" s="3">
-        <f>ROUNDUP(D6*E6,-1)</f>
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
     </row>
@@ -3397,7 +3764,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="3">
-        <f>ROUNDUP(D7*E7,-1)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
@@ -3418,7 +3785,7 @@
         <v>300</v>
       </c>
       <c r="F8" s="3">
-        <f>ROUNDUP(D8*E8,-1)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
@@ -3439,7 +3806,7 @@
         <v>304</v>
       </c>
       <c r="F9" s="3">
-        <f>ROUNDUP(D9*E9,-1)</f>
+        <f t="shared" si="0"/>
         <v>1830</v>
       </c>
     </row>
@@ -3460,7 +3827,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="3">
-        <f>ROUNDUP(D10*E10,-1)</f>
+        <f t="shared" si="0"/>
         <v>1950</v>
       </c>
       <c r="G10" t="s">
@@ -3484,7 +3851,7 @@
         <v>250</v>
       </c>
       <c r="F11" s="3">
-        <f>ROUNDUP(D11*E11,-1)</f>
+        <f t="shared" si="0"/>
         <v>710</v>
       </c>
     </row>
@@ -3505,7 +3872,7 @@
         <v>300</v>
       </c>
       <c r="F12" s="3">
-        <f>ROUNDUP(D12*E12,-1)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
@@ -3526,7 +3893,7 @@
         <v>12000</v>
       </c>
       <c r="F13" s="3">
-        <f>ROUNDUP(D13*E13,-1)</f>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
@@ -3547,7 +3914,7 @@
         <v>500</v>
       </c>
       <c r="F14" s="3">
-        <f>ROUNDUP(D14*E14,-1)</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
@@ -3563,84 +3930,84 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
-        <f>ROUNDUP(D15*E15,-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" s="3"/>
       <c r="F16" s="3">
-        <f>ROUNDUP(D16*E16,-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <f>ROUNDUP(D17*E17,-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>
       <c r="F18" s="3">
-        <f>ROUNDUP(D18*E18,-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="3"/>
       <c r="F19" s="3">
-        <f>ROUNDUP(D19*E19,-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
       <c r="F20" s="3">
-        <f>ROUNDUP(D20*E20,-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" s="3"/>
       <c r="F21" s="3">
-        <f>ROUNDUP(D21*E21,-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
       <c r="F22" s="3">
-        <f>ROUNDUP(D22*E22,-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23" s="3"/>
       <c r="F23" s="3">
-        <f>ROUNDUP(D23*E23,-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24" s="3"/>
       <c r="F24" s="3">
-        <f>ROUNDUP(D24*E24,-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" s="3"/>
       <c r="F25" s="3">
-        <f>ROUNDUP(D25*E25,-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
       <c r="F26" s="3">
-        <f>ROUNDUP(D26*E26,-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/1279_BQ.xlsx
+++ b/1279_BQ.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\153582\Documents\GitHub\base\"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -604,8 +604,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="1337949">
-          <a:off x="5804340" y="1564502"/>
-          <a:ext cx="924071" cy="963452"/>
+          <a:off x="5820500" y="1551695"/>
+          <a:ext cx="927662" cy="955448"/>
           <a:chOff x="2230464" y="6775236"/>
           <a:chExt cx="924071" cy="963452"/>
         </a:xfrm>
@@ -921,6 +921,860 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>429335</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>154109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="606156" flipV="1">
+          <a:off x="5920369" y="3011609"/>
+          <a:ext cx="720000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601599</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>173831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>67164</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>154840</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="Group 37"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6092633" y="1507331"/>
+          <a:ext cx="685795" cy="1505009"/>
+          <a:chOff x="7172607" y="6811851"/>
+          <a:chExt cx="684495" cy="1512748"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="39" name="Group 38"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7172607" y="6811851"/>
+            <a:ext cx="684495" cy="1512748"/>
+            <a:chOff x="6546520" y="7117659"/>
+            <a:chExt cx="684000" cy="1517069"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="Rectangle 43"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="20700000">
+              <a:off x="6637029" y="7950728"/>
+              <a:ext cx="216000" cy="684000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="Rectangle 44"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="20700000">
+              <a:off x="6909034" y="7117659"/>
+              <a:ext cx="216000" cy="684000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="Rectangle 45"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="18000000" flipV="1">
+              <a:off x="6780520" y="7536916"/>
+              <a:ext cx="216000" cy="684000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Trapezoid 39"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="1883361" flipV="1">
+            <a:off x="7479204" y="7795412"/>
+            <a:ext cx="324495" cy="323381"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 28796"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="41" name="Group 40"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7266359" y="6871121"/>
+            <a:ext cx="216156" cy="432000"/>
+            <a:chOff x="8525721" y="7853079"/>
+            <a:chExt cx="216156" cy="432000"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="Rectangle 41"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8525721" y="7853079"/>
+              <a:ext cx="216156" cy="432000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="Rectangle 42"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8563803" y="7888222"/>
+              <a:ext cx="124077" cy="360000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>96683</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312683</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10138656" flipV="1">
+          <a:off x="6807947" y="2903112"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53436</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>269436</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>43310</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10138656" flipV="1">
+          <a:off x="6764700" y="2684810"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>494160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100045</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>115906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10138656" flipV="1">
+          <a:off x="6595309" y="2947906"/>
+          <a:ext cx="216000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38610</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>51486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>362610</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>64986</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6749874" y="1384986"/>
+          <a:ext cx="324000" cy="1728000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>424909</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>46338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69506</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5915943" y="1379838"/>
+          <a:ext cx="254712" cy="1692000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66933</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>46338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>32818</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>46338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Connector 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6168082" y="1379838"/>
+          <a:ext cx="576000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425279</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>535164</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146736</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Connector 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5916313" y="3056227"/>
+          <a:ext cx="720000" cy="138509"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525162</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>347047</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Connector 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6626311" y="3104635"/>
+          <a:ext cx="432000" cy="82379"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>478824</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>20594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30729</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>164594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6579973" y="1354094"/>
+          <a:ext cx="162020" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2788,7 +3642,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -3171,6 +4025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3532,10 +4387,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="J7:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3595,10 +4451,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
